--- a/data/trans_bre/P2C_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>16.82317911899001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.746738595348877</v>
+        <v>2.746738595348876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07786735806987193</v>
@@ -649,7 +649,7 @@
         <v>0.6424479212694472</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2490379030032806</v>
+        <v>0.2490379030032804</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.691182969045733</v>
+        <v>-4.372387136864329</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.512020009472283</v>
+        <v>2.733429473841146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.633503873706202</v>
+        <v>10.27933850172553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.343557861866347</v>
+        <v>-1.5344599391823</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1255037678822478</v>
+        <v>-0.1229354291657452</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05288324101170495</v>
+        <v>0.05896851170096324</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3347640522166473</v>
+        <v>0.3602385938249743</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.09945385821731502</v>
+        <v>-0.1205007413891861</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.977233670383825</v>
+        <v>9.783501599751625</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.90997253838464</v>
+        <v>18.42410657228789</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.50711535180795</v>
+        <v>23.97666348885236</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.82019596383763</v>
+        <v>6.405138315461069</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.327795058475068</v>
+        <v>0.309752579059448</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4367908254700296</v>
+        <v>0.4568959359960764</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.02000805134218</v>
+        <v>1.064116749888536</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8258136687197394</v>
+        <v>0.7340622400222062</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>10.70574020742711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.838078046416595</v>
+        <v>4.838078046416598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3667346367929252</v>
@@ -749,7 +749,7 @@
         <v>0.282258256313051</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4798557315945998</v>
+        <v>0.4798557315946002</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.214560511154987</v>
+        <v>4.11103658015154</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.928955706564636</v>
+        <v>8.443008741543345</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.438116766608498</v>
+        <v>3.240616694782828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3467557436083256</v>
+        <v>0.8445899943872111</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08294834878902962</v>
+        <v>0.12968846428561</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1846984100546364</v>
+        <v>0.1702762601652212</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05712870946581369</v>
+        <v>0.07926658032707708</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02256338133864842</v>
+        <v>0.04861457364414682</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.29559896122406</v>
+        <v>17.69901266769</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>23.68147754244875</v>
+        <v>23.88740994808732</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.40700436106283</v>
+        <v>18.22566386308317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.007039663401391</v>
+        <v>9.37912317427118</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6574248553469278</v>
+        <v>0.7069965385958623</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5759984071013534</v>
+        <v>0.5682011340847434</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5390648489886737</v>
+        <v>0.5467067007255055</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.136594781121052</v>
+        <v>1.162404237630772</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.756391781588301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-4.33620182349064</v>
+        <v>-4.336201823490649</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4596822596549939</v>
@@ -849,7 +849,7 @@
         <v>0.2025790336692138</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.25143933798686</v>
+        <v>-0.2514393379868604</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.37283266904141</v>
+        <v>5.115915386274309</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.545111928168808</v>
+        <v>-3.190263030125997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.01182579534777</v>
+        <v>-2.239832631147599</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.453257378751498</v>
+        <v>-9.744619142739893</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1588372841494301</v>
+        <v>0.1476208129257675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08084241327242862</v>
+        <v>-0.06754258014909996</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.06036391889912067</v>
+        <v>-0.06517802997680926</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.492237822110707</v>
+        <v>-0.4904160730620218</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.60683895676878</v>
+        <v>22.87779234654251</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.433516194757</v>
+        <v>11.40523538129122</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.73030668984359</v>
+        <v>15.97051805078107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9489416176835569</v>
+        <v>1.205260323006208</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7786968508563865</v>
+        <v>0.7791165885396226</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2629858723432114</v>
+        <v>0.2623093599980088</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4938687298938256</v>
+        <v>0.5100226469416441</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.07253147355019161</v>
+        <v>0.07908933257414939</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>11.83913399834094</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.3434518094100725</v>
+        <v>-0.3434518094100697</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3131952553594462</v>
@@ -949,7 +949,7 @@
         <v>0.3737706989253098</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.02143562614354403</v>
+        <v>-0.02143562614354386</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.29314738229025</v>
+        <v>4.650319910364088</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.846260753080646</v>
+        <v>3.706039542803308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.445629504664575</v>
+        <v>7.101991572405875</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.173746766538473</v>
+        <v>-3.376636673130327</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1378099058367806</v>
+        <v>0.1457852558614756</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07477852608249284</v>
+        <v>0.07264694649349453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.217282439868255</v>
+        <v>0.2104175153708835</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1823876460755575</v>
+        <v>-0.1897984425341238</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.54248291178766</v>
+        <v>13.57208172445151</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.9512665447098</v>
+        <v>13.55224013059526</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.62986403381715</v>
+        <v>16.19716865912929</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.973568490412397</v>
+        <v>2.657567269854247</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4916056123912492</v>
+        <v>0.4854305120722265</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2998961939080433</v>
+        <v>0.2911571349407787</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5609417005413658</v>
+        <v>0.5404380480294938</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2103922190680022</v>
+        <v>0.1859216288907323</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.558262546355748</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.403918198441731</v>
+        <v>9.403918198441728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2915789247167769</v>
@@ -1049,7 +1049,7 @@
         <v>0.2284800009183162</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.7796983582001498</v>
+        <v>0.7796983582001497</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.268837372652175</v>
+        <v>1.982847557368783</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.40899085444371</v>
+        <v>7.030147570263086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.443195765326485</v>
+        <v>2.385813859675832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.525293947888057</v>
+        <v>5.324194121003718</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06620761998071613</v>
+        <v>0.06020905230708879</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1332182202423233</v>
+        <v>0.1490778017513041</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07127115200513706</v>
+        <v>0.06289034799209726</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3813082570549212</v>
+        <v>0.3484471104568075</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.0881067823391</v>
+        <v>14.59687963795663</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.92732952732424</v>
+        <v>18.00756396968643</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.91547358444245</v>
+        <v>13.1543440617515</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.96816688431702</v>
+        <v>13.13288734271514</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5957665237576646</v>
+        <v>0.573341736416441</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4538594582307734</v>
+        <v>0.4473488393903093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4344383993462325</v>
+        <v>0.4316585833991086</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.324432072573743</v>
+        <v>1.316958908882938</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>0.3178096430754793</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.392248352713208</v>
+        <v>1.392248352713209</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.344959866832298</v>
+        <v>4.122163197631627</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.516633326103577</v>
+        <v>3.520708326688837</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.412020262827139</v>
+        <v>0.9091548613132843</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.074330134414549</v>
+        <v>6.65851191779049</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1942902178072138</v>
+        <v>0.191535028632372</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08788647242599351</v>
+        <v>0.08997965604638949</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05131677919027752</v>
+        <v>0.02210353018196746</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.337289731903773</v>
+        <v>0.4105333827811208</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.05229281922538</v>
+        <v>14.01320331356089</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.89580788891474</v>
+        <v>16.37618804797034</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.44493570165395</v>
+        <v>12.54808194376272</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.63357813114282</v>
+        <v>18.51751104640508</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.028670996511031</v>
+        <v>0.9934874893702131</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5913047969995272</v>
+        <v>0.6061729765426739</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7039934915692858</v>
+        <v>0.7080870415517621</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.508349577929692</v>
+        <v>3.603593445379278</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>7.355045656703712</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.692679193231883</v>
+        <v>4.692679193231888</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1812450775216822</v>
@@ -1249,7 +1249,7 @@
         <v>0.2345809417977823</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.3487955583643706</v>
+        <v>0.348795558364371</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.126949357785655</v>
+        <v>3.155611314588004</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.383271980533587</v>
+        <v>4.622754194718492</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.126988523231971</v>
+        <v>5.031291463024138</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.063453548682088</v>
+        <v>3.163223161734606</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1022318591291682</v>
+        <v>0.1018504574965123</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0965022031991</v>
+        <v>0.1014779273030606</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1567824469753353</v>
+        <v>0.1567431688900713</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2083520300735061</v>
+        <v>0.2205886620828504</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.780079136220865</v>
+        <v>7.662799689276209</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.081552795828292</v>
+        <v>9.477941085049217</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.801366366088462</v>
+        <v>9.770923605285514</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.519315976432027</v>
+        <v>6.436087733212922</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2781463692206622</v>
+        <v>0.2683555147324107</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2088603114907676</v>
+        <v>0.218720687924129</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3220772888580919</v>
+        <v>0.3252486295376206</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5149126534337394</v>
+        <v>0.5173228723132751</v>
       </c>
     </row>
     <row r="25">
